--- a/SPRINT2/Planilha de Riscos - Tec Chicken.xlsx
+++ b/SPRINT2/Planilha de Riscos - Tec Chicken.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\BandTec\1º Semestre\Repositório Gustavo - TECCHICKEN-SPRINT2\TECCHICKEN\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB24399-0154-4020-8182-F4580894CED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B7AD4C-50A5-4DF3-8BD0-393DD089FCDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riscos" sheetId="2" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,19 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -234,6 +231,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +517,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,184 +533,184 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -742,13 +742,13 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>9</v>
       </c>
     </row>
@@ -759,10 +759,10 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>6</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/SPRINT2/Planilha de Riscos - Tec Chicken.xlsx
+++ b/SPRINT2/Planilha de Riscos - Tec Chicken.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 3/TECCHICKEN-DOCUMENTACAO/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B7AD4C-50A5-4DF3-8BD0-393DD089FCDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{07B7AD4C-50A5-4DF3-8BD0-393DD089FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9141B464-8EF0-47CC-A546-C9CDFE4A305C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riscos" sheetId="2" r:id="rId1"/>
@@ -517,22 +517,22 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H8" sqref="C2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="61.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -673,7 +673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -696,19 +696,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
     </row>
@@ -720,25 +720,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F76A10-827A-4466-B632-23CD2A1040A5}">
-  <dimension ref="C3:F19"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -752,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -766,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -780,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -791,13 +789,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
